--- a/Texts/Город Сокровищ/Все персонажи/Вивайл.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Вивайл.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Öíí...[K] Óàë â œæí çå äåìï?[K]\nÌàäîï. Ðôòëàê óàë.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Then we failed to find clues\nhere too…</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1104.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И здесь мы ничего не нашли...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> É èäåòû íú îéœåãï îå îàšìé...</t>
   </si>
 </sst>
 </file>
@@ -142,7 +154,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -174,11 +186,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -193,6 +225,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -475,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,17 +654,35 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="4">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6">
         <v>139</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="8">
+        <v>66</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Вивайл.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Вивайл.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -124,6 +124,18 @@
   </si>
   <si>
     <t xml:space="preserve"> É èäåòû íú îéœåãï îå îàšìé...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Well if it isn\'t you two.[K]\nIt\'s been a long time.</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P01A/us0105.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О, это же вы двое.[K]\nДавно не виделись.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï, üóï çå âú äâïå.[K]\nÄàâîï îå âéäåìéòû.</t>
   </si>
 </sst>
 </file>
@@ -519,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -685,6 +697,23 @@
         <v>34</v>
       </c>
     </row>
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4">
+        <v>47</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Вивайл.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Вивайл.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -136,6 +136,30 @@
   </si>
   <si>
     <t xml:space="preserve"> Ï, üóï çå âú äâïå.[K]\nÄàâîï îå âéäåìéòû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You\'re making our Team [CS:X]AWD[CR]\nlook bad!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The glory is ours next time!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us0412.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы выставляете Команду [CS:X]АВД[CR] в\nплохом свете!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В следующий раз мы присвоим\nсебе всю славу!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú âúòóàâìÿåóå Ëïíàîäô [CS:X]ÀÂÄ[CR] â\nðìïöïí òâåóå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â òìåäôýþéê ñàè íú ðñéòâïéí\nòåáå âòý òìàâô!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us2003.ssb</t>
   </si>
 </sst>
 </file>
@@ -531,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -698,20 +722,54 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="8">
         <v>47</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="9" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="4">
+        <v>24</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="4">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
